--- a/algorithms/homogeneity_results.xlsx
+++ b/algorithms/homogeneity_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13245,6 +13245,228 @@
         <v>8.35584502754112</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-06-25 16:32:48</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>FP_Multi</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>{'Exercise': '3 - 4 times per week'}</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>{'RaceEthnicity': 'White or of European descent'}</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F347" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G347" t="b">
+        <v>1</v>
+      </c>
+      <c r="H347" t="n">
+        <v>1.456858427001862</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.02428097378336436</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-06-25 16:32:49</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>FP_Multi</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>{'Exercise': '3 - 4 times per week'}</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>{'RaceEthnicity': 'White or of European descent'}</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F348" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G348" t="b">
+        <v>1</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.5552064280018385</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.009253440466697309</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-06-25 16:32:50</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>FP_Multi</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>{'Exercise': '3 - 4 times per week'}</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>{'RaceEthnicity': 'White or of European descent'}</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F349" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G349" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.5826065260007454</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.009710108766679089</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-06-25 16:32:51</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>FP_Multi</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>{'Exercise': '3 - 4 times per week'}</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>{'RaceEthnicity': 'White or of European descent'}</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F350" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G350" t="b">
+        <v>1</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.5947135550013627</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.009911892583356044</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-06-25 16:32:52</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>FP_Multi</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>{'Exercise': '3 - 4 times per week'}</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>{'RaceEthnicity': 'White or of European descent'}</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F351" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G351" t="b">
+        <v>1</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.5800993849989027</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.009668323083315045</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-06-25 16:32:52</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>FP_Multi</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>{'Exercise': '3 - 4 times per week'}</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>{'RaceEthnicity': 'White or of European descent'}</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F352" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G352" t="b">
+        <v>1</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.5657592959978501</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.00942932159996417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
